--- a/data/literacy_RnB0309.xlsx
+++ b/data/literacy_RnB0309.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="1280" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="56580" yWindow="7660" windowWidth="51200" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1007,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1030,6 +1033,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -1309,15 +1327,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AT46" sqref="AT46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
@@ -8954,136 +8972,136 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="1:45" ht="31" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    <row r="60" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
         <v>58</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="11"/>
+      <c r="C60" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="10">
         <v>20135354</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F60" s="2">
-        <v>2</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="F60" s="10">
+        <v>2</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="3" t="s">
+      <c r="H60" s="11"/>
+      <c r="I60" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="J60" s="4">
-        <v>4</v>
-      </c>
-      <c r="K60" s="4">
+      <c r="J60" s="13">
+        <v>4</v>
+      </c>
+      <c r="K60" s="13">
         <v>5</v>
       </c>
-      <c r="L60" s="4">
-        <v>3</v>
-      </c>
-      <c r="M60" s="4">
-        <v>3</v>
-      </c>
-      <c r="N60" s="4">
+      <c r="L60" s="13">
+        <v>3</v>
+      </c>
+      <c r="M60" s="13">
+        <v>3</v>
+      </c>
+      <c r="N60" s="13">
         <v>5</v>
       </c>
-      <c r="O60" s="4">
+      <c r="O60" s="13">
         <v>5</v>
       </c>
-      <c r="P60" s="4" t="s">
+      <c r="P60" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="Q60" s="4" t="s">
+      <c r="Q60" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="R60" s="4" t="s">
+      <c r="R60" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="S60" s="4" t="s">
+      <c r="S60" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="T60" s="4">
-        <v>3</v>
-      </c>
-      <c r="U60" s="4">
-        <v>4</v>
-      </c>
-      <c r="V60" s="4">
-        <v>1</v>
-      </c>
-      <c r="W60" s="4">
-        <v>3</v>
-      </c>
-      <c r="X60" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y60" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z60" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA60" s="4">
-        <v>4</v>
-      </c>
-      <c r="AB60" s="4">
-        <v>3</v>
-      </c>
-      <c r="AC60" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD60" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE60" s="4">
-        <v>2</v>
-      </c>
-      <c r="AF60" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG60" s="4">
-        <v>4</v>
-      </c>
-      <c r="AH60" s="4">
-        <v>3</v>
-      </c>
-      <c r="AI60" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ60" s="4">
-        <v>4</v>
-      </c>
-      <c r="AK60" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL60" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM60" s="4">
-        <v>3</v>
-      </c>
-      <c r="AN60" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO60" s="4">
-        <v>4</v>
-      </c>
-      <c r="AP60" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ60" s="4">
-        <v>3</v>
-      </c>
-      <c r="AR60" s="4">
-        <v>2</v>
-      </c>
-      <c r="AS60" s="4" t="s">
+      <c r="T60" s="13">
+        <v>3</v>
+      </c>
+      <c r="U60" s="13">
+        <v>4</v>
+      </c>
+      <c r="V60" s="13">
+        <v>1</v>
+      </c>
+      <c r="W60" s="13">
+        <v>3</v>
+      </c>
+      <c r="X60" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y60" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB60" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC60" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD60" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF60" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG60" s="13">
+        <v>4</v>
+      </c>
+      <c r="AH60" s="13">
+        <v>3</v>
+      </c>
+      <c r="AI60" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ60" s="13">
+        <v>4</v>
+      </c>
+      <c r="AK60" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL60" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM60" s="13">
+        <v>3</v>
+      </c>
+      <c r="AN60" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO60" s="13">
+        <v>4</v>
+      </c>
+      <c r="AP60" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ60" s="13">
+        <v>3</v>
+      </c>
+      <c r="AR60" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS60" s="13" t="s">
         <v>265</v>
       </c>
     </row>
